--- a/inst/extdata/FHFA/NMDB/SFCensusTractFNM2022.xlsx
+++ b/inst/extdata/FHFA/NMDB/SFCensusTractFNM2022.xlsx
@@ -337,11 +337,6 @@
     <t>Co-Borrower Age 62 or older</t>
   </si>
   <si>
-    <t>Loan-to-Value Ratio (LTV) at
-Origination, or Combined LTV (CLTV)
-where available</t>
-  </si>
-  <si>
     <t>999.00 = Not applicable</t>
   </si>
   <si>
@@ -463,10 +458,6 @@
   </si>
   <si>
     <t>999 = Not available/Not applicable</t>
-  </si>
-  <si>
-    <t>Manufactured Home – Land Property
-Interest</t>
   </si>
   <si>
     <t>1 = Direct ownership
@@ -673,23 +664,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1 = Yes
-0 = No
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9 = Missing</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>https://www.cdfifund.gov/opportunity-zones</t>
     </r>
     <r>
@@ -738,6 +712,17 @@
   <si>
     <t>Borrower’s (or Borrowers’) Annual Income</t>
   </si>
+  <si>
+    <t>Loan-to-Value Ratio (LTV) at Origination, or Combined LTV (CLTV) where available</t>
+  </si>
+  <si>
+    <t>Manufactured Home – Land Property Interest</t>
+  </si>
+  <si>
+    <t>1 = Yes
+0 = No
+9 = Missing</t>
+  </si>
 </sst>
 </file>
 
@@ -746,7 +731,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0;###0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,13 +768,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="9"/>
       <color indexed="8"/>
@@ -808,6 +786,19 @@
     <font>
       <sz val="9"/>
       <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -867,7 +858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -885,9 +876,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -900,15 +888,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1219,7 +1211,7 @@
     <col min="1" max="1" width="4.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.265625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="207.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="207.46484375" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.59765625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1267,7 +1259,7 @@
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1286,7 +1278,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -1299,7 +1291,7 @@
       <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1354,7 +1346,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -1392,7 +1384,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="4">
@@ -1405,18 +1397,18 @@
         <v>29</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="4">
         <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>30</v>
@@ -1426,7 +1418,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="4">
@@ -1439,11 +1431,11 @@
         <v>24</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="4">
@@ -1460,14 +1452,14 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="4">
         <v>9</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>30</v>
@@ -1477,7 +1469,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="4">
@@ -1494,7 +1486,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="4">
@@ -1511,7 +1503,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="4">
@@ -1526,7 +1518,7 @@
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="4">
@@ -1540,7 +1532,7 @@
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="93" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1548,9 +1540,9 @@
         <v>1</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>47</v>
       </c>
       <c r="E20" s="6"/>
@@ -1563,9 +1555,9 @@
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="D21" s="5"/>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
@@ -1576,9 +1568,9 @@
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="D22" s="5"/>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -1589,9 +1581,9 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="D23" s="5"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
@@ -1602,13 +1594,13 @@
         <v>1</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="D24" s="5"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="4">
@@ -1617,7 +1609,7 @@
       <c r="C25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="6"/>
@@ -1630,9 +1622,9 @@
         <v>1</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>50</v>
       </c>
       <c r="E26" s="6"/>
@@ -1645,9 +1637,9 @@
         <v>1</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="D27" s="5"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
@@ -1658,9 +1650,9 @@
         <v>1</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="D28" s="5"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
@@ -1671,9 +1663,9 @@
         <v>1</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
@@ -1684,13 +1676,13 @@
         <v>1</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="D30" s="5"/>
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" s="8">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="4">
@@ -1699,13 +1691,13 @@
       <c r="C31" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="8">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
       <c r="B32" s="4">
@@ -1720,7 +1712,7 @@
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33" s="8">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
       <c r="B33" s="4">
@@ -1735,7 +1727,7 @@
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" s="8">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
       <c r="B34" s="4">
@@ -1752,7 +1744,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35" s="8">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
       <c r="B35" s="4">
@@ -1769,7 +1761,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36" s="8">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
       <c r="B36" s="4">
@@ -1784,7 +1776,7 @@
       <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37" s="8">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
       <c r="B37" s="4">
@@ -1797,11 +1789,11 @@
         <v>66</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A38" s="8">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
       <c r="B38" s="4">
@@ -1818,7 +1810,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A39" s="8">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
       <c r="B39" s="4">
@@ -1835,7 +1827,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A40" s="8">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
       <c r="B40" s="4">
@@ -1850,22 +1842,22 @@
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A41" s="9">
+      <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="10">
-        <v>1</v>
-      </c>
-      <c r="C41" s="11" t="s">
+      <c r="B41" s="9">
+        <v>1</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E41" s="13"/>
+      <c r="D41" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A42" s="8">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
       <c r="B42" s="4">
@@ -1874,372 +1866,372 @@
       <c r="C42" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>124</v>
+      <c r="D42" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A43" s="8">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
       <c r="B43" s="4">
         <v>6</v>
       </c>
       <c r="C43" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A44" s="8">
-        <v>43</v>
-      </c>
-      <c r="B44" s="4">
-        <v>1</v>
-      </c>
-      <c r="C44" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A45" s="8">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
       <c r="B45" s="4">
         <v>3</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="E45" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="5" t="s">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A46" s="8">
-        <v>45</v>
-      </c>
-      <c r="B46" s="4">
-        <v>1</v>
-      </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A47" s="8">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
       <c r="B47" s="4">
         <v>6</v>
       </c>
       <c r="C47" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="E47" s="6"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A48" s="8">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
       <c r="B48" s="4">
         <v>9</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E48" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4">
+        <v>1</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" s="8">
-        <v>48</v>
-      </c>
-      <c r="B49" s="4">
-        <v>1</v>
-      </c>
-      <c r="C49" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4">
+        <v>1</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="6"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" s="8">
-        <v>49</v>
-      </c>
-      <c r="B50" s="4">
-        <v>1</v>
-      </c>
-      <c r="C50" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E50" s="6"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" s="8">
-        <v>50</v>
-      </c>
-      <c r="B51" s="4">
-        <v>1</v>
-      </c>
-      <c r="C51" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="E51" s="6"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="8">
+      <c r="A52" s="7">
         <v>51</v>
       </c>
       <c r="B52" s="4">
         <v>2</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="8">
+      <c r="A53" s="7">
         <v>52</v>
       </c>
       <c r="B53" s="4">
         <v>2</v>
       </c>
       <c r="C53" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="E53" s="6"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="8">
+      <c r="A54" s="7">
         <v>53</v>
       </c>
       <c r="B54" s="4">
         <v>2</v>
       </c>
       <c r="C54" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" s="8">
+      <c r="A55" s="7">
         <v>54</v>
       </c>
       <c r="B55" s="4">
         <v>6</v>
       </c>
       <c r="C55" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="E55" s="6"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" s="8">
+      <c r="A56" s="7">
         <v>55</v>
       </c>
       <c r="B56" s="4">
         <v>3</v>
       </c>
       <c r="C56" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="E56" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4">
+        <v>1</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A57" s="8">
-        <v>56</v>
-      </c>
-      <c r="B57" s="4">
-        <v>1</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="E57" s="6"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" s="8">
+      <c r="A58" s="7">
         <v>57</v>
       </c>
       <c r="B58" s="4">
         <v>9</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E58" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" s="7">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4">
+        <v>1</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="8">
-        <v>58</v>
-      </c>
-      <c r="B59" s="4">
-        <v>1</v>
-      </c>
-      <c r="C59" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D59" s="5" t="s">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" s="7">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4">
+        <v>1</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="D60" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" s="7">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4">
+        <v>1</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="8">
-        <v>59</v>
-      </c>
-      <c r="B60" s="4">
-        <v>1</v>
-      </c>
-      <c r="C60" s="5" t="s">
+      <c r="D61" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" s="7">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4">
+        <v>1</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="8">
-        <v>60</v>
-      </c>
-      <c r="B61" s="4">
-        <v>1</v>
-      </c>
-      <c r="C61" s="5" t="s">
+      <c r="D62" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63" s="7">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4">
+        <v>1</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="8">
-        <v>61</v>
-      </c>
-      <c r="B62" s="4">
-        <v>1</v>
-      </c>
-      <c r="C62" s="5" t="s">
+      <c r="D63" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64" s="7">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4">
+        <v>1</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" s="8">
-        <v>62</v>
-      </c>
-      <c r="B63" s="4">
-        <v>1</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="8">
-        <v>63</v>
-      </c>
-      <c r="B64" s="4">
-        <v>1</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="D64" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>125</v>
+        <v>109</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/FHFA/NMDB/SFCensusTractFNM2022.xlsx
+++ b/inst/extdata/FHFA/NMDB/SFCensusTractFNM2022.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1204,7 +1205,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1383,7 +1386,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1393,7 +1396,7 @@
       <c r="C11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="13" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="5" t="s">
